--- a/biology/Histoire de la zoologie et de la botanique/Albert_Monard/Albert_Monard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Monard/Albert_Monard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Monard, né le 2 septembre 1886 aux Ponts-de-Martel et mort le 27 septembre 1952 à La Chaux-de-Fonds[1], est un naturaliste et explorateur suisse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Monard, né le 2 septembre 1886 aux Ponts-de-Martel et mort le 27 septembre 1952 à La Chaux-de-Fonds, est un naturaliste et explorateur suisse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en sciences, Albert Monard fut professeur au Gymnase de La Chaux-de-Fonds (aujourd’hui Lycée Blaise-Cendrars). Il a voué sa vie à la recherche scientifique, publiant des travaux sur la faune profonde du lac de Neuchâtel, décrivant de nombreuses espèces nouvelles de crustacés copépodes et posant les bases d’une classification nouvelle de ce groupe.
 Il fut conservateur du Musée d'histoire naturelle de La Chaux-de-Fonds de 1921 à 1954.
@@ -546,7 +560,9 @@
           <t>Expéditions scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1928 Angola
 1932 Angola
@@ -581,7 +597,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Contribution à la mammologie d’Angola et prodrome d’une faune d’Angola, Lisbonne, 1935
 La faune profonde du lac de Neuchâtel, Neuchâtel, 1919
